--- a/biology/Zoologie/Corne_(matière)/Corne_(matière).xlsx
+++ b/biology/Zoologie/Corne_(matière)/Corne_(matière).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Corne_(mati%C3%A8re)</t>
+          <t>Corne_(matière)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La corne est une matière première en kératine, issue de la corne, des ongles ou des sabots, sous-produits des mammifères, et tout particulièrement chez les ruminants[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La corne est une matière première en kératine, issue de la corne, des ongles ou des sabots, sous-produits des mammifères, et tout particulièrement chez les ruminants.
 Elle sert à la fabrication d'objets divers : embouchures d'instruments de musique, embout des zahatos (gourdes des bergers basques), anciens dés à coudre, pommeaux de parapluie, montures de lunettes, peignes, manches de couteaux, boutons, tuyaux de pipes, branches d'arcs composites, encoches de flèches, étuis de tablette de cire de l'Antiquité, etc. La corne est également utilisée en marqueterie ou en joaillerie.
 Depuis l'invention de la galalithe, elle est de plus en plus souvent remplacée par la matière plastique, qui ne nécessite pas de travail de mise en forme.
 </t>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Corne_(mati%C3%A8re)</t>
+          <t>Corne_(matière)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,12 +527,14 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">France
-Le travail de la corne est une spécialité historique de la Franche-Comté, de la ville d'Oyonnax en Rhône-Alpes, ou du Pays d'Olmes en Ariège (fabrication de peignes en corne notamment). C'est aussi une spécialité du tabletier.
-La corne a besoin de subir une étape de mise à plat (en chauffant) avant que le matériau en forme de lame obtenu puisse être taillé[2].
-Chine
-Les arcs de Xianbei, peuple proto-Mongol en Chine sont fabriqués à partir de cornes collées.
-On fabrique des peignes et différents objets d'art à partir des cornes de yak, dans le Sichuan, chez les Qiangs et dans les différentes régions tibétaines.
+          <t>France</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le travail de la corne est une spécialité historique de la Franche-Comté, de la ville d'Oyonnax en Rhône-Alpes, ou du Pays d'Olmes en Ariège (fabrication de peignes en corne notamment). C'est aussi une spécialité du tabletier.
+La corne a besoin de subir une étape de mise à plat (en chauffant) avant que le matériau en forme de lame obtenu puisse être taillé.
 </t>
         </is>
       </c>
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Corne_(mati%C3%A8re)</t>
+          <t>Corne_(matière)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,10 +560,50 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Travail de la corne</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Chine</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les arcs de Xianbei, peuple proto-Mongol en Chine sont fabriqués à partir de cornes collées.
+On fabrique des peignes et différents objets d'art à partir des cornes de yak, dans le Sichuan, chez les Qiangs et dans les différentes régions tibétaines.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Corne_(matière)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Corne_(mati%C3%A8re)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Travailler la corne</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La corne peut être assouplie par trempage dans l'eau bouillante et passage sous presse pour obtenir des tablettes plates pouvant être gravées ou découpées à la scie à chantourner.
 Pour graver la corne il est préférable de la faire tremper dans l'eau froide la veille, pour éviter de soulever de trop gros éclats.
